--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1064329.225513852</v>
+        <v>1039683.993762564</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4888794.453803541</v>
+        <v>4888794.45380354</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>74.99298492937231</v>
       </c>
       <c r="G2" t="n">
-        <v>39.70122005611992</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106.3557243141965</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>133.3451320122809</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443403</v>
       </c>
       <c r="H4" t="n">
-        <v>20.0040272933122</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>198.5830666005834</v>
       </c>
       <c r="G5" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>281.8003387717048</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>184.680805879045</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>14.0329563791339</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923916</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>32.96992507729629</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>20.45644432565729</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>185.2231790253954</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>11.67617159448329</v>
       </c>
       <c r="H8" t="n">
         <v>302.3342338808923</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447895</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>63.0421204693938</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4031333312317</v>
+        <v>51.50447751920741</v>
       </c>
       <c r="H9" t="n">
         <v>93.49542143817382</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318224</v>
+        <v>32.7153050831822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320314</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703699</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>140.8996988959682</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>54.17279198383904</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.9840109923298</v>
+        <v>11.98401099232974</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236498</v>
+        <v>15.2866524423649</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159068</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>102.2176589792459</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>280.732472485741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>261.8173103786149</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>34.40787678419761</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247742</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.842886239454</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>81.46084344268529</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>104.4481078222674</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>31.93582623763023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.62154955555324</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>168.1158122680976</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>11.26664236074016</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>256.1157837280782</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>131.5522128412688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>14.93663403485253</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>186.0867603502138</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.753850549431781</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.51180339460882</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>179.0944876018798</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.0088406754052</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>162.060610939769</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>174.1088523888109</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>184.3755225607021</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.4484877422286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396202</v>
@@ -3088,7 +3088,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>119.5444359887418</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>81.46084344268498</v>
       </c>
       <c r="V34" t="n">
-        <v>61.36917500886953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>190.3602036960995</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>126.53888249517</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9994691657081</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851116</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.77200357366308</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.3866485609001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>188.6059442291526</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>349.4526337405166</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>81.46084344268498</v>
       </c>
       <c r="V40" t="n">
-        <v>154.7857799304735</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>232.0435653572834</v>
+        <v>150.9066036119067</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>88.58584547962731</v>
       </c>
       <c r="V43" t="n">
-        <v>47.38664856090008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>398.2524006183685</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>196.7489171508914</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.64635737312245</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>81.46084344268465</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.10234866528</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="C2" t="n">
-        <v>750.10234866528</v>
+        <v>293.4024563932551</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487952</v>
+        <v>293.4024563932551</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323103</v>
+        <v>103.9826713767706</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158254</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.495204112382</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="W2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262241</v>
       </c>
       <c r="X2" t="n">
-        <v>750.10234866528</v>
+        <v>482.8222414097396</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.10234866528</v>
+        <v>482.8222414097396</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.5707260946528</v>
+        <v>430.6039361998068</v>
       </c>
       <c r="C3" t="n">
-        <v>236.5707260946528</v>
+        <v>430.6039361998068</v>
       </c>
       <c r="D3" t="n">
-        <v>236.5707260946528</v>
+        <v>281.6695265385555</v>
       </c>
       <c r="E3" t="n">
-        <v>236.5707260946528</v>
+        <v>122.4320715331</v>
       </c>
       <c r="F3" t="n">
-        <v>90.0361681215378</v>
+        <v>122.4320715331</v>
       </c>
       <c r="G3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="T3" t="n">
-        <v>615.4102961276226</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="U3" t="n">
-        <v>615.4102961276226</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="V3" t="n">
-        <v>425.9905111111377</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="W3" t="n">
-        <v>425.9905111111377</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="X3" t="n">
-        <v>425.9905111111377</v>
+        <v>598.8192732198748</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5707260946528</v>
+        <v>598.8192732198748</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910429</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230162</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170694</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.418473293963</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828944</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.740097465976</v>
+        <v>1018.254896603642</v>
       </c>
       <c r="C5" t="n">
-        <v>1256.740097465976</v>
+        <v>1018.254896603642</v>
       </c>
       <c r="D5" t="n">
-        <v>1256.740097465976</v>
+        <v>659.9891979968913</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>659.9891979968913</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763687</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U5" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="W5" t="n">
-        <v>1630.205855727056</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="X5" t="n">
-        <v>1256.740097465976</v>
+        <v>1794.994068643575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1256.740097465976</v>
+        <v>1404.854736667764</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>804.6501442579348</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>630.1971149768078</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>481.2627053155565</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>322.025250310101</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>175.4906923369859</v>
       </c>
       <c r="G6" t="n">
-        <v>175.490692336986</v>
+        <v>175.4906923369859</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104402</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1408.727369909692</v>
       </c>
       <c r="U6" t="n">
-        <v>1539.52797744664</v>
+        <v>1180.625780042957</v>
       </c>
       <c r="V6" t="n">
-        <v>1539.52797744664</v>
+        <v>1180.625780042957</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.353274033374</v>
+        <v>1180.625780042957</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.501773827841</v>
+        <v>1180.625780042957</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.741475062887</v>
+        <v>972.8654812780028</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="C7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="D7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>340.0964449191582</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141766</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>171.9636155141766</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>61.70688273934478</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R7" t="n">
-        <v>411.1248508126813</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="S7" t="n">
-        <v>211.9453651969077</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="T7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="U7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="V7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="W7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="X7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.2822901204862</v>
+        <v>486.9863924170686</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.487155015654</v>
+        <v>945.1239955317315</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.487155015654</v>
+        <v>945.1239955317315</v>
       </c>
       <c r="D8" t="n">
-        <v>1637.487155015654</v>
+        <v>758.0298753040594</v>
       </c>
       <c r="E8" t="n">
-        <v>1251.69890241741</v>
+        <v>372.2416227058151</v>
       </c>
       <c r="F8" t="n">
-        <v>840.7129976278026</v>
+        <v>365.2961219566117</v>
       </c>
       <c r="G8" t="n">
-        <v>424.8784808656982</v>
+        <v>353.5020092349114</v>
       </c>
       <c r="H8" t="n">
-        <v>119.4903658344938</v>
+        <v>48.113894203707</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370699</v>
+        <v>48.113894203707</v>
       </c>
       <c r="J8" t="n">
         <v>173.6006955371258</v>
@@ -4822,34 +4822,34 @@
         <v>1938.596789767455</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.96578944089</v>
+        <v>2225.965789440891</v>
       </c>
       <c r="Q8" t="n">
         <v>2393.595193823331</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185349</v>
+        <v>2405.69471018535</v>
       </c>
       <c r="S8" t="n">
-        <v>2405.694710185349</v>
+        <v>2405.69471018535</v>
       </c>
       <c r="T8" t="n">
-        <v>2342.015800620305</v>
+        <v>2405.69471018535</v>
       </c>
       <c r="U8" t="n">
-        <v>2342.015800620305</v>
+        <v>2405.69471018535</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.952913276734</v>
+        <v>2074.631822841779</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.952913276734</v>
+        <v>1721.863167571665</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.487155015654</v>
+        <v>1721.863167571665</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.487155015654</v>
+        <v>1331.723835595853</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5297702181789</v>
+        <v>856.783653236336</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0767409370519</v>
+        <v>682.330623955209</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1423312758006</v>
+        <v>533.3962142939578</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9048762703451</v>
+        <v>374.1587592885023</v>
       </c>
       <c r="F9" t="n">
-        <v>312.37031829723</v>
+        <v>227.6242013153872</v>
       </c>
       <c r="G9" t="n">
         <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399208</v>
+        <v>81.15965691399205</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370699</v>
+        <v>48.113894203707</v>
       </c>
       <c r="J9" t="n">
-        <v>104.035126450247</v>
+        <v>104.0351264502471</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873328</v>
+        <v>277.7682440873331</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039189</v>
+        <v>557.6964019039193</v>
       </c>
       <c r="M9" t="n">
-        <v>903.7162268899251</v>
+        <v>903.7162268899259</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944935</v>
+        <v>1273.302811944936</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471366</v>
+        <v>1589.182537471368</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411578</v>
+        <v>1823.370799411579</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186834</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="R9" t="n">
-        <v>1904.540155931073</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="S9" t="n">
-        <v>1767.528648385245</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="T9" t="n">
-        <v>1573.242163355869</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="U9" t="n">
-        <v>1573.242163355869</v>
+        <v>1930.000254186835</v>
       </c>
       <c r="V9" t="n">
-        <v>1338.090055124126</v>
+        <v>1694.848145955092</v>
       </c>
       <c r="W9" t="n">
-        <v>1083.852698395925</v>
+        <v>1440.610789226891</v>
       </c>
       <c r="X9" t="n">
-        <v>1083.852698395925</v>
+        <v>1232.759289021358</v>
       </c>
       <c r="Y9" t="n">
-        <v>941.5297702181789</v>
+        <v>1024.998990256404</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.21895581212093</v>
+        <v>527.1848717347566</v>
       </c>
       <c r="C10" t="n">
-        <v>60.21895581212093</v>
+        <v>358.2486888068497</v>
       </c>
       <c r="D10" t="n">
-        <v>60.21895581212093</v>
+        <v>208.132049394514</v>
       </c>
       <c r="E10" t="n">
-        <v>60.21895581212093</v>
+        <v>60.21895581212088</v>
       </c>
       <c r="F10" t="n">
-        <v>60.21895581212093</v>
+        <v>60.21895581212088</v>
       </c>
       <c r="G10" t="n">
-        <v>60.21895581212093</v>
+        <v>60.21895581212088</v>
       </c>
       <c r="H10" t="n">
-        <v>60.21895581212093</v>
+        <v>60.21895581212088</v>
       </c>
       <c r="I10" t="n">
-        <v>60.21895581212093</v>
+        <v>60.21895581212088</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370699</v>
+        <v>48.113894203707</v>
       </c>
       <c r="K10" t="n">
-        <v>107.499855313909</v>
+        <v>107.4998553139091</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663729</v>
+        <v>213.3992373663731</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658659</v>
+        <v>328.3135705658663</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739869</v>
+        <v>448.3530236739873</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502112</v>
+        <v>538.9157986502117</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107195</v>
+        <v>597.3459267107202</v>
       </c>
       <c r="Q10" t="n">
-        <v>581.9048636376235</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="R10" t="n">
-        <v>581.9048636376235</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="S10" t="n">
-        <v>384.261695540748</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="T10" t="n">
-        <v>384.261695540748</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="U10" t="n">
-        <v>384.261695540748</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="V10" t="n">
-        <v>384.261695540748</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="W10" t="n">
-        <v>384.261695540748</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="X10" t="n">
-        <v>281.011534955651</v>
+        <v>581.9048636376243</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.21895581212093</v>
+        <v>581.9048636376243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1878.169188758594</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C11" t="n">
-        <v>1509.206671818183</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.940973211432</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E11" t="n">
-        <v>765.152720613188</v>
+        <v>741.9599508971596</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>330.9740461075521</v>
       </c>
       <c r="G11" t="n">
         <v>66.51211643218342</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758594</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,49 +5123,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5232,19 +5232,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392149</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324644</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3290.850390514021</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3084.872642898244</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3084.872642898244</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2753.809755554673</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2401.041100284559</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5445,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W16" t="n">
-        <v>920.887005818185</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X16" t="n">
-        <v>920.887005818185</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1519.135572818019</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C17" t="n">
-        <v>1519.135572818019</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D17" t="n">
-        <v>1160.869874211268</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E17" t="n">
-        <v>775.0816216130238</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F17" t="n">
-        <v>364.0957168234162</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,7 +5515,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5524,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3220.102682394759</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2966.572205668595</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.509318325025</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>2282.74066305491</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X17" t="n">
-        <v>1909.27490479383</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y17" t="n">
-        <v>1519.135572818019</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5700,25 +5700,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>729.2011216450112</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U19" t="n">
-        <v>729.2011216450112</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>729.2011216450112</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>155.0187321448635</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
         <v>1636.624422581789</v>
@@ -5743,19 +5743,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3155.791869823214</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2790.283754563413</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>2621.347571635506</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>662.1841939716412</v>
       </c>
       <c r="X22" t="n">
-        <v>3192.724798537183</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y22" t="n">
-        <v>2971.932219393653</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2740.71941966821</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,7 +6086,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E25" t="n">
-        <v>3029.366580310158</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F25" t="n">
-        <v>2882.476632812247</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y25" t="n">
-        <v>3036.18865157221</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1888.09808975843</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1519.135572818019</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.869874211268</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>775.0816216130238</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3244.280767675221</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3038.303020059443</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3038.303020059443</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>3038.303020059443</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W26" t="n">
-        <v>3038.303020059443</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X26" t="n">
-        <v>2664.837261798364</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y26" t="n">
-        <v>2274.697929822552</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6326,7 +6326,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C28" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D28" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6420,16 +6420,16 @@
         <v>631.7841389438281</v>
       </c>
       <c r="V28" t="n">
-        <v>631.7841389438281</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W28" t="n">
-        <v>631.7841389438281</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="X28" t="n">
-        <v>631.7841389438281</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y28" t="n">
-        <v>410.991559800298</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2006.398526988078</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>2912.153322005523</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>2725.915420429056</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V31" t="n">
-        <v>2471.230932223169</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223169</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1202.866772971799</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1202.866772971799</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1202.866772971799</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>817.078520373555</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763051</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V34" t="n">
-        <v>2471.230932223169</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1367.62725301677</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1009.361554410019</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1009.361554410019</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>598.3756496204117</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W35" t="n">
-        <v>3197.788768583745</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X35" t="n">
-        <v>2824.323010322666</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218339</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218339</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596504</v>
@@ -7131,16 +7131,16 @@
         <v>631.7841389438281</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438281</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W37" t="n">
-        <v>342.3669689068675</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="X37" t="n">
-        <v>114.3774180088502</v>
+        <v>149.1100998399239</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.51211643218339</v>
+        <v>149.1100998399239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1661.795585684488</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.833068744076</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7204,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269322</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.778044008242</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1661.795585684488</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>3014.008748936224</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>2724.905882061868</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V40" t="n">
-        <v>2568.556609404824</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W40" t="n">
-        <v>2568.556609404824</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y40" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1881.708680670282</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="C41" t="n">
-        <v>1512.74616372987</v>
+        <v>1789.055335321089</v>
       </c>
       <c r="D41" t="n">
-        <v>1512.74616372987</v>
+        <v>1430.789636714338</v>
       </c>
       <c r="E41" t="n">
-        <v>1126.957911131626</v>
+        <v>1045.001384116094</v>
       </c>
       <c r="F41" t="n">
-        <v>715.9720063420186</v>
+        <v>634.0154793264867</v>
       </c>
       <c r="G41" t="n">
-        <v>300.8995561870151</v>
+        <v>218.9430291714831</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734405</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y41" t="n">
-        <v>2268.308520734405</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,37 +7505,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>3036.502954734813</v>
+        <v>831.406353818561</v>
       </c>
       <c r="V43" t="n">
-        <v>2988.637653158146</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W43" t="n">
-        <v>2699.220483121186</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X43" t="n">
-        <v>2471.230932223169</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y43" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1292.833068744076</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>879.7731733615572</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>879.7731733615572</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>468.7872685719496</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7651,19 +7651,19 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3126.869541658774</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3126.869541658774</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2795.806654315204</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.037999045089</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X44" t="n">
-        <v>2069.572240784009</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.432908808198</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3103.839206178696</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="C46" t="n">
-        <v>3103.839206178696</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="D46" t="n">
-        <v>3079.953996710895</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="E46" t="n">
-        <v>2932.040903128502</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="F46" t="n">
-        <v>2785.150955630592</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="G46" t="n">
-        <v>2617.448119005311</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178696</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U46" t="n">
-        <v>3103.839206178696</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V46" t="n">
-        <v>3103.839206178696</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="W46" t="n">
-        <v>3103.839206178696</v>
+        <v>376.7853475753367</v>
       </c>
       <c r="X46" t="n">
-        <v>3103.839206178696</v>
+        <v>148.7957966773194</v>
       </c>
       <c r="Y46" t="n">
-        <v>3103.839206178696</v>
+        <v>148.7957966773194</v>
       </c>
     </row>
   </sheetData>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>126.1435732559705</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>149.1044152748385</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8733195558277</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>255.1805474109837</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>74.77988500397822</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>99.46986231735278</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>254.5871720989608</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.0881058334839</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>82.87935969080434</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>337.9743263566729</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24183,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>30.09605447753466</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>94.15744254776834</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>312.8156244352824</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>200.1511783058398</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>139.6801120971374</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>124.462387396822</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.67595839356703</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>207.1434510541738</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.823139506532073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>124.462387396822</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>195.6222482896581</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>124.462387396822</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>101.8363156449107</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>278.285353921252</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>208.2078224813932</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7684683149585</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>220.5615219573539</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>222.702086222243</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>64.66195907290609</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.1980047911947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>15.31202591046758</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.78530491553698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="V40" t="n">
-        <v>97.35186339335453</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>62.56419903003714</v>
+        <v>143.7011607754137</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,19 +25842,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>197.6259927259856</v>
       </c>
       <c r="V43" t="n">
-        <v>204.7509947629279</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>12.66932503508497</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>7.169052988728794</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>124.9691156450899</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.56496481634358</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26076,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773246.2968165617</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773246.2968165617</v>
+        <v>773246.2968165616</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773246.2968165614</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773246.2968165617</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773246.2968165615</v>
+        <v>773246.2968165614</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773246.2968165613</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773246.2968165616</v>
+        <v>773246.2968165615</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>378397.123974062</v>
+      </c>
+      <c r="F2" t="n">
         <v>378397.1239740619</v>
-      </c>
-      <c r="F2" t="n">
-        <v>378397.123974062</v>
       </c>
       <c r="G2" t="n">
         <v>378397.1239740619</v>
@@ -26334,28 +26334,28 @@
         <v>378397.1239740619</v>
       </c>
       <c r="I2" t="n">
-        <v>378397.123974062</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="J2" t="n">
-        <v>378397.1239740617</v>
+        <v>378397.1239740619</v>
       </c>
       <c r="K2" t="n">
         <v>378397.1239740617</v>
       </c>
       <c r="L2" t="n">
-        <v>378397.1239740618</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="M2" t="n">
+        <v>378397.123974062</v>
+      </c>
+      <c r="N2" t="n">
         <v>378397.1239740617</v>
       </c>
-      <c r="N2" t="n">
-        <v>378397.1239740618</v>
-      </c>
       <c r="O2" t="n">
-        <v>378397.123974062</v>
+        <v>378397.1239740617</v>
       </c>
       <c r="P2" t="n">
-        <v>378397.1239740619</v>
+        <v>378397.1239740617</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861774</v>
+        <v>392510.2442861788</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829701</v>
+        <v>59871.45719829666</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815236</v>
+        <v>219439.6828815232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487776</v>
+        <v>91259.95686487797</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109869</v>
+        <v>15010.50346109851</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281546</v>
+        <v>57311.38215281555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>157675.7383646804</v>
+        <v>157675.7383646803</v>
       </c>
       <c r="E4" t="n">
         <v>584.6469890061231</v>
@@ -26438,7 +26438,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
         <v>584.646989006123</v>
@@ -26456,7 +26456,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061229</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061228</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.0818558723</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103162</v>
+        <v>89860.11994103165</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26493,22 +26493,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.250094626</v>
+        <v>-454780.2500946256</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589842</v>
+        <v>-179813.2985589858</v>
       </c>
       <c r="D6" t="n">
-        <v>164691.7021679539</v>
+        <v>164691.7021679543</v>
       </c>
       <c r="E6" t="n">
-        <v>84066.45354213894</v>
+        <v>79992.45816396974</v>
       </c>
       <c r="F6" t="n">
-        <v>303506.1364236625</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="G6" t="n">
-        <v>303506.1364236625</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="H6" t="n">
-        <v>303506.1364236625</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="I6" t="n">
-        <v>303506.1364236626</v>
+        <v>299432.1410454928</v>
       </c>
       <c r="J6" t="n">
-        <v>254441.1916951178</v>
+        <v>250367.1963169483</v>
       </c>
       <c r="K6" t="n">
-        <v>212246.1795587845</v>
+        <v>208172.1841806147</v>
       </c>
       <c r="L6" t="n">
-        <v>288495.6329625637</v>
+        <v>284421.6375843941</v>
       </c>
       <c r="M6" t="n">
-        <v>246194.7542708468</v>
+        <v>242120.7588926774</v>
       </c>
       <c r="N6" t="n">
-        <v>303506.1364236624</v>
+        <v>299432.1410454927</v>
       </c>
       <c r="O6" t="n">
-        <v>303506.1364236625</v>
+        <v>299432.1410454927</v>
       </c>
       <c r="P6" t="n">
-        <v>303506.1364236624</v>
+        <v>299432.1410454927</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>902.108272762125</v>
+        <v>902.1082727621255</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261638</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463373</v>
+        <v>601.4236775463374</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247806</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444089</v>
+        <v>48.39760822444066</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311733</v>
+        <v>187.6684278311728</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598442</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017414</v>
+        <v>59.30872082017363</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559554</v>
+        <v>229.9777778559553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598434</v>
+        <v>354.5893695598442</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017414</v>
+        <v>59.30872082017341</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559552</v>
+        <v>229.9777778559555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598432</v>
+        <v>354.5893695598442</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017414</v>
+        <v>59.30872082017363</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559554</v>
+        <v>229.9777778559553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046879</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>331.8830608123391</v>
       </c>
       <c r="G2" t="n">
-        <v>373.3966131739381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121494</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>29.80806505157881</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>62.06446577972036</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482801</v>
       </c>
       <c r="H4" t="n">
-        <v>133.4296435385074</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208.292979141128</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>67.44062994570817</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8.08241243171878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>237.6620267817857</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>75.10292618834225</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T7" t="n">
-        <v>200.9113744086453</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>169.4598625952876</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.66270691447889</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>126.3796986693933</v>
       </c>
       <c r="T8" t="n">
-        <v>144.1784367770845</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
         <v>251.0555276341844</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>83.8986558120243</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320308</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
         <v>225.8137252499236</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.78299688133615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>125.6591881980983</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>147.7638628228271</v>
       </c>
       <c r="I10" t="n">
         <v>106.5295869551745</v>
@@ -28061,7 +28061,7 @@
         <v>104.1486779823913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
         <v>220.9949191299504</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.4919964097912</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.745611407469246e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30538,7 +30538,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J7" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651756</v>
+        <v>3.626565920651758</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487481</v>
+        <v>37.14056823487483</v>
       </c>
       <c r="I8" t="n">
         <v>139.813182655927</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079173</v>
+        <v>307.8002493079174</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291062</v>
+        <v>461.3127847291064</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232524</v>
+        <v>572.2993015232528</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146431</v>
+        <v>636.7932432146434</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366949</v>
+        <v>647.0972236366953</v>
       </c>
       <c r="O8" t="n">
-        <v>611.035558763214</v>
+        <v>611.0355587632143</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971238</v>
+        <v>521.504712597124</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637826</v>
+        <v>391.6283205637828</v>
       </c>
       <c r="R8" t="n">
-        <v>227.8072715131411</v>
+        <v>227.8072715131412</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685198</v>
+        <v>82.64037091685202</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765307</v>
+        <v>15.87529231765308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521404</v>
+        <v>0.2901252736521406</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94038383197891</v>
+        <v>1.940383831978912</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832264</v>
+        <v>18.74002279832265</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681775</v>
+        <v>66.8070749168178</v>
       </c>
       <c r="J9" t="n">
-        <v>183.32371984499</v>
+        <v>183.3237198449901</v>
       </c>
       <c r="K9" t="n">
-        <v>313.329436587577</v>
+        <v>313.3294365875771</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461227</v>
+        <v>421.3100947461229</v>
       </c>
       <c r="M9" t="n">
-        <v>491.649008655358</v>
+        <v>491.6490086553583</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671816</v>
+        <v>504.6614949671819</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691226</v>
+        <v>461.6666742691228</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539378</v>
+        <v>370.5282073539379</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610272</v>
+        <v>247.6882940610274</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907608</v>
+        <v>120.4740066907609</v>
       </c>
       <c r="S9" t="n">
-        <v>36.0417786334679</v>
+        <v>36.04177863346791</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739553</v>
+        <v>7.821108515739557</v>
       </c>
       <c r="U9" t="n">
         <v>0.1276568310512442</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013668</v>
+        <v>1.626752623013669</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461244</v>
+        <v>14.46330968461245</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208378</v>
+        <v>48.9208879720838</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470663</v>
+        <v>115.0114104470664</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737697</v>
+        <v>188.9990774737698</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615048</v>
+        <v>241.8537490615049</v>
       </c>
       <c r="M10" t="n">
-        <v>255.000867987497</v>
+        <v>255.0008679874971</v>
       </c>
       <c r="N10" t="n">
-        <v>248.937517301719</v>
+        <v>248.9375173017191</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328774</v>
+        <v>229.9340889328776</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233984</v>
+        <v>196.7483354233985</v>
       </c>
       <c r="Q10" t="n">
         <v>136.2183491870809</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477818</v>
+        <v>73.14471339477821</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106546</v>
+        <v>28.34986162106547</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331125</v>
+        <v>6.950670298331128</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529108</v>
+        <v>0.08873196125529112</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33678,7 +33678,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563568</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233473</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093964</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850738</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563545</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767808</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769699</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084179</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.754344781231</v>
+        <v>126.7543447812311</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841256</v>
+        <v>241.2229336841258</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532652</v>
+        <v>336.5328865532655</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873704</v>
+        <v>406.4470099873707</v>
       </c>
       <c r="N8" t="n">
-        <v>417.684160040104</v>
+        <v>417.6841600401044</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415272</v>
+        <v>380.9373473415276</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418542</v>
+        <v>290.2717168418545</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893331</v>
+        <v>169.3226306893333</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900895</v>
+        <v>12.22173369900906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.4860931783233</v>
+        <v>56.48609317832339</v>
       </c>
       <c r="K9" t="n">
-        <v>175.487997613218</v>
+        <v>175.4879976132181</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662485</v>
+        <v>282.7557149662487</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333397</v>
+        <v>349.51497473334</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838483</v>
+        <v>373.3197828838486</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246782</v>
+        <v>319.0704298246784</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396075</v>
+        <v>236.5537999396077</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750057</v>
+        <v>107.7065199750059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323436</v>
+        <v>59.98581930323445</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802665</v>
+        <v>106.9690727802667</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398919</v>
+        <v>116.0750840398921</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364858</v>
+        <v>121.2519728364859</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103465</v>
+        <v>91.47755048103477</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425082</v>
+        <v>59.02033137425093</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
         <v>157.2826706286436</v>
@@ -37952,13 +37952,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
         <v>451.794267901329</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
